--- a/3.0 survey key.xlsx
+++ b/3.0 survey key.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfcooper\Documents\COVID\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfcooper\Documents\COVID_Values\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F233E965-0044-4480-A153-833802673A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D3EE0F-9C59-49C7-B152-81D808964FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{216FD5A7-FEF7-0F4F-84B7-9E8599889F62}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{216FD5A7-FEF7-0F4F-84B7-9E8599889F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="580">
   <si>
     <t>Question #</t>
   </si>
@@ -2487,6 +2487,9 @@
   </si>
   <si>
     <t>(Integer 1-4), dummy vars 0-1</t>
+  </si>
+  <si>
+    <t>re</t>
   </si>
 </sst>
 </file>
@@ -3135,9 +3138,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EB4852-F564-F647-8E0D-30BEF64A1B6B}">
   <dimension ref="A1:J232"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A225" sqref="A225"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F222" sqref="F222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6130,6 +6133,9 @@
       <c r="D174" t="s">
         <v>433</v>
       </c>
+      <c r="E174" t="s">
+        <v>579</v>
+      </c>
       <c r="F174" s="7"/>
       <c r="I174" s="7" t="s">
         <v>423</v>
